--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_24_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_24_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>141350.9566928377</v>
+        <v>24358805.45128876</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141350.9566928377</v>
+        <v>24358805.45128876</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>53794.96833766832</v>
+        <v>6775835.268245309</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53794.96833766832</v>
+        <v>6775835.268245309</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1493551546.126585</v>
+        <v>52586581.8957855</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11172.68188987339</v>
+        <v>1093745.565387113</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22262.5803875368</v>
+        <v>2171017.235724446</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33352.47888520022</v>
+        <v>3248288.906061781</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>44992.43830997546</v>
+        <v>4261082.155128628</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56006.71845679971</v>
+        <v>5335367.067919197</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>66999.95008229556</v>
+        <v>6423546.59072837</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>77998.2217077922</v>
+        <v>7512729.07353771</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>88996.4933332888</v>
+        <v>8601911.556347094</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>100791.2685385488</v>
+        <v>9598735.215149196</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>111360.8351835216</v>
+        <v>10714742.83173699</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>121848.5979823427</v>
+        <v>11866706.55172416</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>132352.2605311014</v>
+        <v>13021834.32194961</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>142855.923079858</v>
+        <v>14176962.09217466</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>154799.3237329388</v>
+        <v>15173267.77723817</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>169672.4981937811</v>
+        <v>15837050.80743435</v>
       </c>
     </row>
   </sheetData>
